--- a/05_TSA/01_Código_Extracción/05_Verificacion_R/Hoja3.xlsx
+++ b/05_TSA/01_Código_Extracción/05_Verificacion_R/Hoja3.xlsx
@@ -20,7 +20,7 @@
     <t xml:space="preserve">Distrito:</t>
   </si>
   <si>
-    <t xml:space="preserve">56</t>
+    <t xml:space="preserve">34</t>
   </si>
   <si>
     <t xml:space="preserve">1.3999999999999999</t>
@@ -47,15 +47,15 @@
     <t xml:space="preserve">ENTIDADES MENCIONADAS (FRACC. IX)</t>
   </si>
   <si>
-    <t xml:space="preserve">19</t>
-  </si>
-  <si>
     <t xml:space="preserve">1.4.10</t>
   </si>
   <si>
     <t xml:space="preserve">ASUNTOS DE JURISDICCION VOLUNTARIA (FRACC. X)</t>
   </si>
   <si>
+    <t xml:space="preserve">103</t>
+  </si>
+  <si>
     <t xml:space="preserve">1.4.11</t>
   </si>
   <si>
@@ -113,7 +113,7 @@
     <t xml:space="preserve">(FRACC. XIV)</t>
   </si>
   <si>
-    <t xml:space="preserve">1</t>
+    <t xml:space="preserve">2</t>
   </si>
   <si>
     <t xml:space="preserve">1.4.15</t>
@@ -155,7 +155,7 @@
     <t xml:space="preserve">ETC...) (L.F.R.A.) (ART. V TRANSITORIO L.O.T.A.)</t>
   </si>
   <si>
-    <t xml:space="preserve">20</t>
+    <t xml:space="preserve">105</t>
   </si>
   <si>
     <t xml:space="preserve">0</t>
@@ -167,10 +167,10 @@
     <t xml:space="preserve">TOTAL:</t>
   </si>
   <si>
-    <t xml:space="preserve">66</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FEBRERO</t>
+    <t xml:space="preserve">114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DICIEMBRE</t>
   </si>
   <si>
     <t xml:space="preserve">HOJA 3</t>
@@ -659,9 +659,7 @@
       <c r="E8"/>
       <c r="F8"/>
       <c r="G8"/>
-      <c r="H8" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8"/>
       <c r="K8"/>
@@ -695,16 +693,18 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" t="s">
         <v>12</v>
-      </c>
-      <c r="C11" t="s">
-        <v>13</v>
       </c>
       <c r="D11"/>
       <c r="E11"/>
       <c r="F11"/>
       <c r="G11"/>
-      <c r="H11" s="1"/>
+      <c r="H11" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="I11" s="1"/>
       <c r="J11"/>
       <c r="K11"/>
@@ -1460,7 +1460,7 @@
         <v>52</v>
       </c>
       <c r="G63" t="n">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="H63" t="s">
         <v>53</v>

--- a/05_TSA/01_Código_Extracción/05_Verificacion_R/Hoja3.xlsx
+++ b/05_TSA/01_Código_Extracción/05_Verificacion_R/Hoja3.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
   <si>
     <t xml:space="preserve">I N F O R M E   E S T A D I S T I C O</t>
   </si>
@@ -20,7 +20,7 @@
     <t xml:space="preserve">Distrito:</t>
   </si>
   <si>
-    <t xml:space="preserve">34</t>
+    <t xml:space="preserve">H01_01</t>
   </si>
   <si>
     <t xml:space="preserve">1.3999999999999999</t>
@@ -47,13 +47,22 @@
     <t xml:space="preserve">ENTIDADES MENCIONADAS (FRACC. IX)</t>
   </si>
   <si>
+    <t xml:space="preserve">H03_01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H03_02</t>
+  </si>
+  <si>
     <t xml:space="preserve">1.4.10</t>
   </si>
   <si>
     <t xml:space="preserve">ASUNTOS DE JURISDICCION VOLUNTARIA (FRACC. X)</t>
   </si>
   <si>
-    <t xml:space="preserve">103</t>
+    <t xml:space="preserve">H03_03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H03_04</t>
   </si>
   <si>
     <t xml:space="preserve">1.4.11</t>
@@ -68,6 +77,12 @@
     <t xml:space="preserve">QUE SE REFIERE EL ART. 45 DE LA LEY AGRARIA (FRACC. XI)</t>
   </si>
   <si>
+    <t xml:space="preserve">H03_05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H03_06</t>
+  </si>
+  <si>
     <t xml:space="preserve">1.4.12</t>
   </si>
   <si>
@@ -77,6 +92,12 @@
     <t xml:space="preserve">AGRARIA (FRACC. XII)</t>
   </si>
   <si>
+    <t xml:space="preserve">H03_07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H03_08</t>
+  </si>
+  <si>
     <t xml:space="preserve">1.4.13</t>
   </si>
   <si>
@@ -92,6 +113,12 @@
     <t xml:space="preserve">AGRARIA</t>
   </si>
   <si>
+    <t xml:space="preserve">H03_09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H03_10</t>
+  </si>
+  <si>
     <t xml:space="preserve">b)</t>
   </si>
   <si>
@@ -104,6 +131,12 @@
     <t xml:space="preserve">APLICABLES (FRACC.XIII)</t>
   </si>
   <si>
+    <t xml:space="preserve">H03_11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H03_12</t>
+  </si>
+  <si>
     <t xml:space="preserve">1.4.14</t>
   </si>
   <si>
@@ -113,7 +146,10 @@
     <t xml:space="preserve">(FRACC. XIV)</t>
   </si>
   <si>
-    <t xml:space="preserve">2</t>
+    <t xml:space="preserve">H03_13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H03_14</t>
   </si>
   <si>
     <t xml:space="preserve">1.4.15</t>
@@ -125,6 +161,12 @@
     <t xml:space="preserve">(L.F.R.A.)  (ART. IV TRANSITORIO L.O.T.A. FRACC. I)</t>
   </si>
   <si>
+    <t xml:space="preserve">H03_15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H03_16</t>
+  </si>
+  <si>
     <t xml:space="preserve">1.4.16</t>
   </si>
   <si>
@@ -134,12 +176,24 @@
     <t xml:space="preserve">TRANSITORIO L.O.T.A.)</t>
   </si>
   <si>
+    <t xml:space="preserve">H03_17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H03_18</t>
+  </si>
+  <si>
     <t xml:space="preserve">1.4.17</t>
   </si>
   <si>
     <t xml:space="preserve">INCONFORMIDADES (L.F.R.A.)(ART. V TRANSITORIO L.O.T.A.)</t>
   </si>
   <si>
+    <t xml:space="preserve">H03_19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H03_20</t>
+  </si>
+  <si>
     <t xml:space="preserve">1.4.18</t>
   </si>
   <si>
@@ -155,7 +209,10 @@
     <t xml:space="preserve">ETC...) (L.F.R.A.) (ART. V TRANSITORIO L.O.T.A.)</t>
   </si>
   <si>
-    <t xml:space="preserve">105</t>
+    <t xml:space="preserve">H03_21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H03_22</t>
   </si>
   <si>
     <t xml:space="preserve">0</t>
@@ -167,16 +224,13 @@
     <t xml:space="preserve">TOTAL:</t>
   </si>
   <si>
-    <t xml:space="preserve">114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DICIEMBRE</t>
+    <t xml:space="preserve">H01_03</t>
   </si>
   <si>
     <t xml:space="preserve">HOJA 3</t>
   </si>
   <si>
-    <t xml:space="preserve">OK</t>
+    <t xml:space="preserve">VERIFICAR</t>
   </si>
   <si>
     <t xml:space="preserve">Este resultado debe coincidir con los puntos 1.3.1 y 1.3.2 respectivamente, de la Hoja 1</t>
@@ -186,6 +240,12 @@
   </si>
   <si>
     <t xml:space="preserve">1.3.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H01_12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H01_13</t>
   </si>
 </sst>
 </file>
@@ -659,8 +719,12 @@
       <c r="E8"/>
       <c r="F8"/>
       <c r="G8"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
+      <c r="H8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="J8"/>
       <c r="K8"/>
     </row>
@@ -693,19 +757,21 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D11"/>
       <c r="E11"/>
       <c r="F11"/>
       <c r="G11"/>
       <c r="H11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I11" s="1"/>
+        <v>15</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="J11"/>
       <c r="K11"/>
     </row>
@@ -738,10 +804,10 @@
     <row r="14">
       <c r="A14"/>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C14" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D14"/>
       <c r="E14"/>
@@ -756,7 +822,7 @@
       <c r="A15"/>
       <c r="B15"/>
       <c r="C15" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D15"/>
       <c r="E15"/>
@@ -771,14 +837,18 @@
       <c r="A16"/>
       <c r="B16"/>
       <c r="C16" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D16"/>
       <c r="E16"/>
       <c r="F16"/>
       <c r="G16"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
+      <c r="H16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="J16"/>
       <c r="K16"/>
     </row>
@@ -811,10 +881,10 @@
     <row r="19">
       <c r="A19"/>
       <c r="B19" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D19"/>
       <c r="E19"/>
@@ -829,14 +899,18 @@
       <c r="A20"/>
       <c r="B20"/>
       <c r="C20" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D20"/>
       <c r="E20"/>
       <c r="F20"/>
       <c r="G20"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
+      <c r="H20" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="J20"/>
       <c r="K20"/>
     </row>
@@ -869,10 +943,10 @@
     <row r="23">
       <c r="A23"/>
       <c r="B23" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C23" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D23"/>
       <c r="E23"/>
@@ -899,10 +973,10 @@
     <row r="25">
       <c r="A25"/>
       <c r="B25" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="C25" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D25"/>
       <c r="E25"/>
@@ -917,14 +991,18 @@
       <c r="A26"/>
       <c r="B26"/>
       <c r="C26" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D26"/>
       <c r="E26"/>
       <c r="F26"/>
       <c r="G26"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
+      <c r="H26" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="J26"/>
       <c r="K26"/>
     </row>
@@ -957,10 +1035,10 @@
     <row r="29">
       <c r="A29"/>
       <c r="B29" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="C29" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="D29"/>
       <c r="E29"/>
@@ -975,7 +1053,7 @@
       <c r="A30"/>
       <c r="B30"/>
       <c r="C30" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="D30"/>
       <c r="E30"/>
@@ -990,14 +1068,18 @@
       <c r="A31"/>
       <c r="B31"/>
       <c r="C31" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="D31"/>
       <c r="E31"/>
       <c r="F31"/>
       <c r="G31"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
+      <c r="H31" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="J31"/>
       <c r="K31"/>
     </row>
@@ -1030,10 +1112,10 @@
     <row r="34">
       <c r="A34"/>
       <c r="B34" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="C34" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="D34"/>
       <c r="E34"/>
@@ -1048,16 +1130,18 @@
       <c r="A35"/>
       <c r="B35"/>
       <c r="C35" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="D35"/>
       <c r="E35"/>
       <c r="F35"/>
       <c r="G35"/>
       <c r="H35" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I35" s="1"/>
+        <v>44</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="J35"/>
       <c r="K35"/>
     </row>
@@ -1090,10 +1174,10 @@
     <row r="38">
       <c r="A38"/>
       <c r="B38" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="C38" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="D38"/>
       <c r="E38"/>
@@ -1108,14 +1192,18 @@
       <c r="A39"/>
       <c r="B39"/>
       <c r="C39" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="D39"/>
       <c r="E39"/>
       <c r="F39"/>
       <c r="G39"/>
-      <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
+      <c r="H39" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="J39"/>
       <c r="K39"/>
     </row>
@@ -1148,10 +1236,10 @@
     <row r="42">
       <c r="A42"/>
       <c r="B42" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="C42" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="D42"/>
       <c r="E42"/>
@@ -1166,14 +1254,18 @@
       <c r="A43"/>
       <c r="B43"/>
       <c r="C43" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="D43"/>
       <c r="E43"/>
       <c r="F43"/>
       <c r="G43"/>
-      <c r="H43" s="1"/>
-      <c r="I43" s="1"/>
+      <c r="H43" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>55</v>
+      </c>
       <c r="J43"/>
       <c r="K43"/>
     </row>
@@ -1206,17 +1298,21 @@
     <row r="46">
       <c r="A46"/>
       <c r="B46" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="C46" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="D46"/>
       <c r="E46"/>
       <c r="F46"/>
       <c r="G46"/>
-      <c r="H46" s="1"/>
-      <c r="I46" s="1"/>
+      <c r="H46" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="J46"/>
       <c r="K46"/>
     </row>
@@ -1249,10 +1345,10 @@
     <row r="49">
       <c r="A49"/>
       <c r="B49" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="C49" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="D49"/>
       <c r="E49"/>
@@ -1267,7 +1363,7 @@
       <c r="A50"/>
       <c r="B50"/>
       <c r="C50" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="D50"/>
       <c r="E50"/>
@@ -1282,7 +1378,7 @@
       <c r="A51"/>
       <c r="B51"/>
       <c r="C51" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="D51"/>
       <c r="E51"/>
@@ -1297,14 +1393,18 @@
       <c r="A52"/>
       <c r="B52"/>
       <c r="C52" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="D52"/>
       <c r="E52"/>
       <c r="F52"/>
       <c r="G52"/>
-      <c r="H52" s="1"/>
-      <c r="I52" s="1"/>
+      <c r="H52" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="J52"/>
       <c r="K52"/>
     </row>
@@ -1330,10 +1430,10 @@
       <c r="F54"/>
       <c r="G54"/>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="I54" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="J54"/>
       <c r="K54"/>
@@ -1350,7 +1450,7 @@
       <c r="I55"/>
       <c r="J55"/>
       <c r="K55" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
     </row>
     <row r="56">
@@ -1371,16 +1471,16 @@
       <c r="B57"/>
       <c r="C57"/>
       <c r="D57" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="E57"/>
       <c r="F57"/>
       <c r="G57"/>
       <c r="H57" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="I57" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="J57"/>
       <c r="K57"/>
@@ -1457,13 +1557,13 @@
       <c r="D63"/>
       <c r="E63"/>
       <c r="F63" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="G63" t="n">
         <v>2024</v>
       </c>
       <c r="H63" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="I63"/>
       <c r="J63"/>
@@ -1491,14 +1591,14 @@
       <c r="F65"/>
       <c r="G65"/>
       <c r="H65" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="I65" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="J65"/>
       <c r="K65" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
     </row>
     <row r="66">
@@ -1510,10 +1610,10 @@
       <c r="F66"/>
       <c r="G66"/>
       <c r="H66" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="I66" t="s">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="J66"/>
       <c r="K66"/>
@@ -1527,10 +1627,10 @@
       <c r="F67"/>
       <c r="G67"/>
       <c r="H67" t="s">
-        <v>51</v>
+        <v>76</v>
       </c>
       <c r="I67" t="s">
-        <v>48</v>
+        <v>77</v>
       </c>
       <c r="J67"/>
       <c r="K67"/>

--- a/05_TSA/01_Código_Extracción/05_Verificacion_R/Hoja3.xlsx
+++ b/05_TSA/01_Código_Extracción/05_Verificacion_R/Hoja3.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
   <si>
     <t xml:space="preserve">I N F O R M E   E S T A D I S T I C O</t>
   </si>
@@ -20,7 +20,7 @@
     <t xml:space="preserve">Distrito:</t>
   </si>
   <si>
-    <t xml:space="preserve">H01_01</t>
+    <t xml:space="preserve">34</t>
   </si>
   <si>
     <t xml:space="preserve">1.3999999999999999</t>
@@ -47,22 +47,13 @@
     <t xml:space="preserve">ENTIDADES MENCIONADAS (FRACC. IX)</t>
   </si>
   <si>
-    <t xml:space="preserve">H03_01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H03_02</t>
-  </si>
-  <si>
     <t xml:space="preserve">1.4.10</t>
   </si>
   <si>
     <t xml:space="preserve">ASUNTOS DE JURISDICCION VOLUNTARIA (FRACC. X)</t>
   </si>
   <si>
-    <t xml:space="preserve">H03_03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H03_04</t>
+    <t xml:space="preserve">103</t>
   </si>
   <si>
     <t xml:space="preserve">1.4.11</t>
@@ -77,12 +68,6 @@
     <t xml:space="preserve">QUE SE REFIERE EL ART. 45 DE LA LEY AGRARIA (FRACC. XI)</t>
   </si>
   <si>
-    <t xml:space="preserve">H03_05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H03_06</t>
-  </si>
-  <si>
     <t xml:space="preserve">1.4.12</t>
   </si>
   <si>
@@ -92,12 +77,6 @@
     <t xml:space="preserve">AGRARIA (FRACC. XII)</t>
   </si>
   <si>
-    <t xml:space="preserve">H03_07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H03_08</t>
-  </si>
-  <si>
     <t xml:space="preserve">1.4.13</t>
   </si>
   <si>
@@ -113,12 +92,6 @@
     <t xml:space="preserve">AGRARIA</t>
   </si>
   <si>
-    <t xml:space="preserve">H03_09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H03_10</t>
-  </si>
-  <si>
     <t xml:space="preserve">b)</t>
   </si>
   <si>
@@ -131,12 +104,6 @@
     <t xml:space="preserve">APLICABLES (FRACC.XIII)</t>
   </si>
   <si>
-    <t xml:space="preserve">H03_11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H03_12</t>
-  </si>
-  <si>
     <t xml:space="preserve">1.4.14</t>
   </si>
   <si>
@@ -146,10 +113,7 @@
     <t xml:space="preserve">(FRACC. XIV)</t>
   </si>
   <si>
-    <t xml:space="preserve">H03_13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H03_14</t>
+    <t xml:space="preserve">2</t>
   </si>
   <si>
     <t xml:space="preserve">1.4.15</t>
@@ -161,12 +125,6 @@
     <t xml:space="preserve">(L.F.R.A.)  (ART. IV TRANSITORIO L.O.T.A. FRACC. I)</t>
   </si>
   <si>
-    <t xml:space="preserve">H03_15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H03_16</t>
-  </si>
-  <si>
     <t xml:space="preserve">1.4.16</t>
   </si>
   <si>
@@ -176,24 +134,12 @@
     <t xml:space="preserve">TRANSITORIO L.O.T.A.)</t>
   </si>
   <si>
-    <t xml:space="preserve">H03_17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H03_18</t>
-  </si>
-  <si>
     <t xml:space="preserve">1.4.17</t>
   </si>
   <si>
     <t xml:space="preserve">INCONFORMIDADES (L.F.R.A.)(ART. V TRANSITORIO L.O.T.A.)</t>
   </si>
   <si>
-    <t xml:space="preserve">H03_19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H03_20</t>
-  </si>
-  <si>
     <t xml:space="preserve">1.4.18</t>
   </si>
   <si>
@@ -209,10 +155,7 @@
     <t xml:space="preserve">ETC...) (L.F.R.A.) (ART. V TRANSITORIO L.O.T.A.)</t>
   </si>
   <si>
-    <t xml:space="preserve">H03_21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H03_22</t>
+    <t xml:space="preserve">105</t>
   </si>
   <si>
     <t xml:space="preserve">0</t>
@@ -224,13 +167,16 @@
     <t xml:space="preserve">TOTAL:</t>
   </si>
   <si>
-    <t xml:space="preserve">H01_03</t>
+    <t xml:space="preserve">114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DICIEMBRE</t>
   </si>
   <si>
     <t xml:space="preserve">HOJA 3</t>
   </si>
   <si>
-    <t xml:space="preserve">VERIFICAR</t>
+    <t xml:space="preserve">OK</t>
   </si>
   <si>
     <t xml:space="preserve">Este resultado debe coincidir con los puntos 1.3.1 y 1.3.2 respectivamente, de la Hoja 1</t>
@@ -240,12 +186,6 @@
   </si>
   <si>
     <t xml:space="preserve">1.3.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H01_12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H01_13</t>
   </si>
 </sst>
 </file>
@@ -719,12 +659,8 @@
       <c r="E8"/>
       <c r="F8"/>
       <c r="G8"/>
-      <c r="H8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
       <c r="J8"/>
       <c r="K8"/>
     </row>
@@ -757,21 +693,19 @@
     <row r="11">
       <c r="A11"/>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D11"/>
       <c r="E11"/>
       <c r="F11"/>
       <c r="G11"/>
       <c r="H11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>16</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="I11" s="1"/>
       <c r="J11"/>
       <c r="K11"/>
     </row>
@@ -804,10 +738,10 @@
     <row r="14">
       <c r="A14"/>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D14"/>
       <c r="E14"/>
@@ -822,7 +756,7 @@
       <c r="A15"/>
       <c r="B15"/>
       <c r="C15" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D15"/>
       <c r="E15"/>
@@ -837,18 +771,14 @@
       <c r="A16"/>
       <c r="B16"/>
       <c r="C16" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D16"/>
       <c r="E16"/>
       <c r="F16"/>
       <c r="G16"/>
-      <c r="H16" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>22</v>
-      </c>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
       <c r="J16"/>
       <c r="K16"/>
     </row>
@@ -881,10 +811,10 @@
     <row r="19">
       <c r="A19"/>
       <c r="B19" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C19" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D19"/>
       <c r="E19"/>
@@ -899,18 +829,14 @@
       <c r="A20"/>
       <c r="B20"/>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D20"/>
       <c r="E20"/>
       <c r="F20"/>
       <c r="G20"/>
-      <c r="H20" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>27</v>
-      </c>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
       <c r="J20"/>
       <c r="K20"/>
     </row>
@@ -943,10 +869,10 @@
     <row r="23">
       <c r="A23"/>
       <c r="B23" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C23" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D23"/>
       <c r="E23"/>
@@ -973,10 +899,10 @@
     <row r="25">
       <c r="A25"/>
       <c r="B25" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C25" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D25"/>
       <c r="E25"/>
@@ -991,18 +917,14 @@
       <c r="A26"/>
       <c r="B26"/>
       <c r="C26" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D26"/>
       <c r="E26"/>
       <c r="F26"/>
       <c r="G26"/>
-      <c r="H26" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
       <c r="J26"/>
       <c r="K26"/>
     </row>
@@ -1035,10 +957,10 @@
     <row r="29">
       <c r="A29"/>
       <c r="B29" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="C29" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D29"/>
       <c r="E29"/>
@@ -1053,7 +975,7 @@
       <c r="A30"/>
       <c r="B30"/>
       <c r="C30" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="D30"/>
       <c r="E30"/>
@@ -1068,18 +990,14 @@
       <c r="A31"/>
       <c r="B31"/>
       <c r="C31" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="D31"/>
       <c r="E31"/>
       <c r="F31"/>
       <c r="G31"/>
-      <c r="H31" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="I31" s="1" t="s">
-        <v>40</v>
-      </c>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
       <c r="J31"/>
       <c r="K31"/>
     </row>
@@ -1112,10 +1030,10 @@
     <row r="34">
       <c r="A34"/>
       <c r="B34" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="C34" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="D34"/>
       <c r="E34"/>
@@ -1130,18 +1048,16 @@
       <c r="A35"/>
       <c r="B35"/>
       <c r="C35" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="D35"/>
       <c r="E35"/>
       <c r="F35"/>
       <c r="G35"/>
       <c r="H35" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="I35" s="1" t="s">
-        <v>45</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="I35" s="1"/>
       <c r="J35"/>
       <c r="K35"/>
     </row>
@@ -1174,10 +1090,10 @@
     <row r="38">
       <c r="A38"/>
       <c r="B38" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="C38" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="D38"/>
       <c r="E38"/>
@@ -1192,18 +1108,14 @@
       <c r="A39"/>
       <c r="B39"/>
       <c r="C39" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="D39"/>
       <c r="E39"/>
       <c r="F39"/>
       <c r="G39"/>
-      <c r="H39" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="I39" s="1" t="s">
-        <v>50</v>
-      </c>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
       <c r="J39"/>
       <c r="K39"/>
     </row>
@@ -1236,10 +1148,10 @@
     <row r="42">
       <c r="A42"/>
       <c r="B42" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="C42" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="D42"/>
       <c r="E42"/>
@@ -1254,18 +1166,14 @@
       <c r="A43"/>
       <c r="B43"/>
       <c r="C43" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="D43"/>
       <c r="E43"/>
       <c r="F43"/>
       <c r="G43"/>
-      <c r="H43" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I43" s="1" t="s">
-        <v>55</v>
-      </c>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
       <c r="J43"/>
       <c r="K43"/>
     </row>
@@ -1298,21 +1206,17 @@
     <row r="46">
       <c r="A46"/>
       <c r="B46" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="C46" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="D46"/>
       <c r="E46"/>
       <c r="F46"/>
       <c r="G46"/>
-      <c r="H46" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="I46" s="1" t="s">
-        <v>59</v>
-      </c>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
       <c r="J46"/>
       <c r="K46"/>
     </row>
@@ -1345,10 +1249,10 @@
     <row r="49">
       <c r="A49"/>
       <c r="B49" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="C49" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="D49"/>
       <c r="E49"/>
@@ -1363,7 +1267,7 @@
       <c r="A50"/>
       <c r="B50"/>
       <c r="C50" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="D50"/>
       <c r="E50"/>
@@ -1378,7 +1282,7 @@
       <c r="A51"/>
       <c r="B51"/>
       <c r="C51" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="D51"/>
       <c r="E51"/>
@@ -1393,18 +1297,14 @@
       <c r="A52"/>
       <c r="B52"/>
       <c r="C52" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="D52"/>
       <c r="E52"/>
       <c r="F52"/>
       <c r="G52"/>
-      <c r="H52" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="I52" s="1" t="s">
-        <v>66</v>
-      </c>
+      <c r="H52" s="1"/>
+      <c r="I52" s="1"/>
       <c r="J52"/>
       <c r="K52"/>
     </row>
@@ -1430,10 +1330,10 @@
       <c r="F54"/>
       <c r="G54"/>
       <c r="H54" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="I54" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="J54"/>
       <c r="K54"/>
@@ -1450,7 +1350,7 @@
       <c r="I55"/>
       <c r="J55"/>
       <c r="K55" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
     </row>
     <row r="56">
@@ -1471,16 +1371,16 @@
       <c r="B57"/>
       <c r="C57"/>
       <c r="D57" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="E57"/>
       <c r="F57"/>
       <c r="G57"/>
       <c r="H57" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="I57" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="J57"/>
       <c r="K57"/>
@@ -1557,13 +1457,13 @@
       <c r="D63"/>
       <c r="E63"/>
       <c r="F63" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="G63" t="n">
         <v>2024</v>
       </c>
       <c r="H63" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="I63"/>
       <c r="J63"/>
@@ -1591,14 +1491,14 @@
       <c r="F65"/>
       <c r="G65"/>
       <c r="H65" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="I65" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="J65"/>
       <c r="K65" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
     </row>
     <row r="66">
@@ -1610,10 +1510,10 @@
       <c r="F66"/>
       <c r="G66"/>
       <c r="H66" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="I66" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="J66"/>
       <c r="K66"/>
@@ -1627,10 +1527,10 @@
       <c r="F67"/>
       <c r="G67"/>
       <c r="H67" t="s">
-        <v>76</v>
+        <v>51</v>
       </c>
       <c r="I67" t="s">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="J67"/>
       <c r="K67"/>

--- a/05_TSA/01_Código_Extracción/05_Verificacion_R/Hoja3.xlsx
+++ b/05_TSA/01_Código_Extracción/05_Verificacion_R/Hoja3.xlsx
@@ -170,7 +170,7 @@
     <t xml:space="preserve">114</t>
   </si>
   <si>
-    <t xml:space="preserve">DICIEMBRE</t>
+    <t xml:space="preserve">Diciembre</t>
   </si>
   <si>
     <t xml:space="preserve">HOJA 3</t>
